--- a/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220516.xlsx
+++ b/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220516.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="499">
   <si>
     <t>가수</t>
   </si>
@@ -888,6 +888,9 @@
     <t>VIVIZ(비비지)</t>
   </si>
   <si>
+    <t>VIVIZ (비비지)</t>
+  </si>
+  <si>
     <t>에일리(Ailee)</t>
   </si>
   <si>
@@ -1000,9 +1003,6 @@
   </si>
   <si>
     <t>마야 (Maya)</t>
-  </si>
-  <si>
-    <t>VIVIZ (비비지)</t>
   </si>
   <si>
     <t>백지영</t>
@@ -4283,7 +4283,7 @@
         <v>286</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -4296,7 +4296,7 @@
         <v>287</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>12</v>
@@ -4309,10 +4309,10 @@
         <v>288</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -4322,10 +4322,10 @@
         <v>289</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -4335,10 +4335,10 @@
         <v>290</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="10"/>
@@ -4350,10 +4350,10 @@
         <v>291</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="10"/>
@@ -4380,10 +4380,10 @@
         <v>293</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="10"/>
@@ -4395,10 +4395,10 @@
         <v>294</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="10"/>
@@ -4425,10 +4425,10 @@
         <v>296</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="10"/>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C221" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="10"/>
@@ -4455,10 +4455,10 @@
         <v>299</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="10"/>
@@ -4470,7 +4470,7 @@
         <v>300</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>301</v>
+        <v>44</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>12</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>12</v>
@@ -4500,7 +4500,7 @@
         <v>303</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>12</v>
@@ -4515,7 +4515,7 @@
         <v>304</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>12</v>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>12</v>
@@ -4541,7 +4541,7 @@
         <v>307</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>12</v>
@@ -4567,7 +4567,7 @@
         <v>309</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>12</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>12</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>12</v>
@@ -4603,10 +4603,10 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>12</v>
@@ -4619,7 +4619,7 @@
         <v>316</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>12</v>
@@ -4645,7 +4645,7 @@
         <v>318</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>12</v>
@@ -4658,7 +4658,7 @@
         <v>319</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>12</v>
@@ -4671,7 +4671,7 @@
         <v>320</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>12</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>12</v>
@@ -4697,7 +4697,7 @@
         <v>323</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>12</v>
@@ -4710,59 +4710,32 @@
         <v>324</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>12</v>
@@ -4772,10 +4745,10 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>12</v>
@@ -4785,7 +4758,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>44</v>
@@ -4798,7 +4771,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>44</v>
@@ -4811,10 +4784,10 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>12</v>
@@ -4824,10 +4797,10 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>12</v>
@@ -4837,10 +4810,10 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>12</v>
@@ -4850,10 +4823,10 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>12</v>
@@ -4863,10 +4836,10 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>12</v>
@@ -4876,10 +4849,10 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>12</v>
@@ -4889,10 +4862,10 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>12</v>
@@ -4902,10 +4875,10 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>12</v>
@@ -4915,10 +4888,10 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>12</v>
@@ -4928,10 +4901,10 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>346</v>
+        <v>94</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>12</v>
@@ -4939,10 +4912,10 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>12</v>
@@ -4950,10 +4923,10 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>12</v>
@@ -4961,7 +4934,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>12</v>
@@ -4972,10 +4945,10 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>12</v>
@@ -4983,7 +4956,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>12</v>
@@ -4994,7 +4967,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>12</v>
@@ -5005,7 +4978,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>12</v>
@@ -5016,7 +4989,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>12</v>
@@ -5027,7 +5000,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>12</v>
@@ -5038,7 +5011,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>12</v>
@@ -5049,7 +5022,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>12</v>
@@ -5060,10 +5033,10 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>12</v>
@@ -5071,10 +5044,10 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>363</v>
+        <v>12</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>12</v>
@@ -5082,10 +5055,10 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>12</v>
@@ -5093,10 +5066,10 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>12</v>
@@ -5104,10 +5077,10 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>12</v>
@@ -5115,10 +5088,10 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>12</v>
@@ -5126,10 +5099,10 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>12</v>
@@ -5137,10 +5110,10 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>372</v>
+        <v>65</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>12</v>
@@ -5148,10 +5121,10 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>12</v>
@@ -5159,10 +5132,10 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>12</v>
@@ -5170,10 +5143,10 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>12</v>
@@ -5181,10 +5154,10 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>377</v>
+        <v>44</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>12</v>
@@ -5192,7 +5165,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>12</v>
@@ -5206,10 +5179,10 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>12</v>
@@ -5220,7 +5193,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>12</v>
@@ -5234,7 +5207,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>12</v>
@@ -5248,10 +5221,10 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>12</v>
@@ -5262,10 +5235,10 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>12</v>
@@ -5276,10 +5249,10 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>12</v>
@@ -5290,10 +5263,10 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>387</v>
+        <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>12</v>
@@ -5304,10 +5277,10 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>12</v>
@@ -5318,13 +5291,13 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>5</v>
+        <v>387</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
@@ -5332,10 +5305,10 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>12</v>
@@ -5346,13 +5319,13 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
@@ -5360,10 +5333,10 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>12</v>
@@ -5371,7 +5344,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>44</v>
@@ -5382,7 +5355,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>44</v>
@@ -5393,7 +5366,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>44</v>
@@ -5404,7 +5377,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>44</v>
@@ -5415,7 +5388,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>44</v>
@@ -5426,7 +5399,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>44</v>
@@ -5437,7 +5410,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>44</v>
@@ -5448,7 +5421,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>44</v>
@@ -5459,7 +5432,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>44</v>
@@ -5470,10 +5443,10 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>12</v>
@@ -5481,10 +5454,10 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>12</v>
@@ -5492,7 +5465,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>404</v>
@@ -5503,7 +5476,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>404</v>
@@ -5514,10 +5487,10 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>12</v>
@@ -5525,10 +5498,10 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B309" s="1">
-        <v>285.0</v>
+        <v>407</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>12</v>
@@ -5536,10 +5509,10 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B310" s="1">
-        <v>285.0</v>
+        <v>408</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>12</v>
@@ -5547,7 +5520,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B311" s="1">
         <v>285.0</v>
@@ -5558,21 +5531,21 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>5</v>
+        <v>411</v>
+      </c>
+      <c r="B312" s="1">
+        <v>285.0</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>162</v>
+        <v>412</v>
+      </c>
+      <c r="B313" s="1">
+        <v>285.0</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>12</v>
@@ -5580,21 +5553,21 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>418</v>
+        <v>162</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>12</v>
@@ -5605,10 +5578,10 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>12</v>
@@ -5619,10 +5592,10 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>12</v>
@@ -5633,10 +5606,10 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>422</v>
+        <v>65</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>12</v>
@@ -5647,10 +5620,10 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>422</v>
+        <v>12</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>12</v>
@@ -5661,7 +5634,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>422</v>
@@ -5675,10 +5648,10 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>12</v>
@@ -5689,10 +5662,10 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>12</v>
@@ -5703,10 +5676,10 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>12</v>
@@ -5717,13 +5690,13 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>5</v>
+        <v>428</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
@@ -5731,10 +5704,10 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>12</v>
@@ -5745,13 +5718,13 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
@@ -5759,10 +5732,10 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>12</v>
@@ -5770,10 +5743,10 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>12</v>
@@ -5781,10 +5754,10 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>12</v>
@@ -5792,10 +5765,10 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>12</v>
@@ -5803,10 +5776,10 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>12</v>
@@ -5814,10 +5787,10 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>44</v>
+        <v>439</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>12</v>
@@ -5825,10 +5798,10 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>12</v>
@@ -5836,10 +5809,10 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>12</v>
@@ -5847,21 +5820,21 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>65</v>
+        <v>444</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>12</v>
@@ -5869,21 +5842,21 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>451</v>
+        <v>65</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>12</v>
@@ -5891,10 +5864,10 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>12</v>
@@ -5902,10 +5875,10 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>12</v>
@@ -5913,10 +5886,10 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>12</v>
@@ -5927,7 +5900,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>44</v>
@@ -5938,10 +5911,10 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>12</v>
@@ -5949,10 +5922,10 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>12</v>
@@ -5961,10 +5934,10 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>12</v>
@@ -5973,10 +5946,10 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>12</v>
@@ -5985,10 +5958,10 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>12</v>
@@ -5997,10 +5970,10 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>12</v>
@@ -6009,67 +5982,67 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>7</v>
+        <v>468</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="D351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>12</v>
@@ -6081,7 +6054,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>12</v>
@@ -6093,7 +6066,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>12</v>
@@ -6105,7 +6078,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>12</v>
@@ -6116,10 +6089,10 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>12</v>
@@ -6127,7 +6100,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>12</v>
@@ -6138,21 +6111,21 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>12</v>
@@ -6160,21 +6133,21 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>12</v>
@@ -6182,10 +6155,10 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>485</v>
+        <v>37</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>12</v>
@@ -6193,10 +6166,10 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>12</v>
@@ -6204,10 +6177,10 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>12</v>
@@ -6215,10 +6188,10 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>12</v>
@@ -6226,10 +6199,10 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>44</v>
+        <v>488</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>12</v>
@@ -6237,12 +6210,34 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10561,7 +10556,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
@@ -10671,7 +10666,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -10726,7 +10721,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>255</v>
@@ -10737,7 +10732,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>65</v>
@@ -10759,7 +10754,7 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>76</v>
@@ -10770,7 +10765,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
@@ -10781,7 +10776,7 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
@@ -10792,7 +10787,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>44</v>
@@ -10858,7 +10853,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>15</v>
